--- a/data/weir.xlsx
+++ b/data/weir.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="70">
   <si>
     <t>General Information</t>
   </si>
@@ -41,10 +41,31 @@
     <t>Repair Priority</t>
   </si>
   <si>
+    <t>qdfwea - svdfzd</t>
+  </si>
+  <si>
+    <t>324</t>
+  </si>
+  <si>
+    <t>weir</t>
+  </si>
+  <si>
+    <t>243r</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>1232re</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>vSDFzd</t>
+  </si>
+  <si>
     <t>08NE087</t>
-  </si>
-  <si>
-    <t>weir</t>
   </si>
   <si>
     <t>DEER CREEK AT DEER PARK</t>
@@ -586,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -601,7 +622,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -625,6 +646,38 @@
       </c>
       <c r="H2" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>54</v>
+      </c>
+      <c r="F3">
+        <v>-110</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -681,16 +734,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>49.44847</v>
@@ -699,24 +752,24 @@
         <v>-118.042</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>49.10427</v>
@@ -725,24 +778,24 @@
         <v>-116.43675</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>49.50195</v>
@@ -751,24 +804,24 @@
         <v>-117.26128</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>48.78922</v>
@@ -777,24 +830,24 @@
         <v>-123.72547</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>49.35616</v>
@@ -803,24 +856,24 @@
         <v>-123.09986</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>49.00239</v>
@@ -829,24 +882,24 @@
         <v>-122.5234</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>53.25861</v>
@@ -855,24 +908,24 @@
         <v>-132.07505</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>55.29611</v>
@@ -881,24 +934,24 @@
         <v>-127.62075</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>54.12694</v>
@@ -907,24 +960,24 @@
         <v>-125.92833</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>51.12203</v>
@@ -933,24 +986,24 @@
         <v>-120.20894</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>50.69665</v>
@@ -959,24 +1012,24 @@
         <v>-119.19616</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>50.8839</v>
@@ -985,24 +1038,24 @@
         <v>-120.96594</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>50.60783</v>
@@ -1011,24 +1064,24 @@
         <v>-120.91086</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>50.23847</v>
@@ -1037,24 +1090,24 @@
         <v>-119.26689</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E17">
         <v>49.71234</v>
@@ -1063,24 +1116,24 @@
         <v>-120.01117</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E18">
         <v>50.07333</v>
@@ -1089,24 +1142,24 @@
         <v>-119.68778</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E19">
         <v>50.04875</v>
@@ -1115,24 +1168,24 @@
         <v>-119.33597</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E20">
         <v>49.99417</v>
@@ -1141,24 +1194,24 @@
         <v>-119.61444</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E21">
         <v>49.88694</v>
@@ -1167,24 +1220,24 @@
         <v>-119.06167</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E22">
         <v>49.79458</v>
@@ -1193,24 +1246,24 @@
         <v>-119.85203</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E23">
         <v>49.65089</v>
@@ -1219,24 +1272,24 @@
         <v>-119.40003</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E24">
         <v>49.65004</v>
@@ -1245,24 +1298,24 @@
         <v>-119.39385</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E25">
         <v>49.62417</v>
@@ -1271,24 +1324,24 @@
         <v>-119.38143</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E26">
         <v>62.672</v>
@@ -1297,24 +1350,24 @@
         <v>-114.26122</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E27">
         <v>62.80781</v>
@@ -1323,10 +1376,10 @@
         <v>-114.03336</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
